--- a/Excel/StoryText.xlsx
+++ b/Excel/StoryText.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mywork\UE4\RougeLike\trunk\UE4RougeLike\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71248703-6CD3-48D6-8FB9-E931F65A9D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="19395" windowHeight="10545"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Speaker</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,23 +142,26 @@
     <t>/Game/Blueprints/Story/Image/123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NpcId</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -173,7 +182,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -182,7 +191,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -191,7 +200,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -200,7 +209,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,7 +218,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -217,7 +226,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -225,7 +234,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -233,7 +242,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -241,7 +250,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -250,7 +259,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,7 +268,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -267,7 +276,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -276,7 +285,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -284,7 +293,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -293,7 +302,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -302,7 +311,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -310,7 +319,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -756,33 +765,27 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -791,6 +794,12 @@
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -804,6 +813,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -852,7 +864,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -885,9 +897,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -920,6 +949,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1095,21 +1141,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="85.25" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="85.28515625" customWidth="1"/>
     <col min="10" max="10" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1143,8 +1189,11 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1172,8 +1221,11 @@
       <c r="K2">
         <v>1</v>
       </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1201,8 +1253,11 @@
       <c r="K3" s="3">
         <v>2</v>
       </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" s="3" customFormat="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1230,8 +1285,11 @@
       <c r="K4" s="3">
         <v>3</v>
       </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" s="3" customFormat="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1259,8 +1317,11 @@
       <c r="K5" s="3">
         <v>4</v>
       </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="3" customFormat="1">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1288,8 +1349,11 @@
       <c r="K6" s="3">
         <v>5</v>
       </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="3" customFormat="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1317,8 +1381,11 @@
       <c r="K7" s="3">
         <v>6</v>
       </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="3" customFormat="1">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1345,6 +1412,9 @@
       </c>
       <c r="K8" s="3">
         <v>7</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1355,12 +1425,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1368,12 +1438,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoryText.xlsx
+++ b/Excel/StoryText.xlsx
@@ -1,28 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mywork\UE4\RougeLike\trunk\UE4RougeLike\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\UE4\RougeLike\trunk\Resource\UE4RougeLike\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71248703-6CD3-48D6-8FB9-E931F65A9D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1073920-00FB-41EB-862E-404FDC3941FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
   <si>
     <t>Speaker</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,101 +79,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姗姗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你好呀，少年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我在这里这么久还第一次见到人呢？好激动</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能给我签名留念么？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不过你长得有点丑，我还是比较喜欢帅的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你觉得我怎么样？漂亮么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里是我的家，你怎么进来的？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最近这里有点问题 你能帮帮我么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来 我带你去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨戈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/Game/Blueprints/Story/Image/123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/Game/Blueprints/Story/Image/123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NpcId</t>
+  </si>
+  <si>
+    <t>遗忘之人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言灵师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你来了，充满污秽之人……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里不欢迎你！或许……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是你，也好……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我只是个被抛弃的人罢了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前方有&lt;red&gt;众神的圣像&lt;/&gt;，你去向众神祈祷，也许可以洗去你的污秽……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众神保佑，终于有人来这里了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年轻人，快带我离开这里！我知晓许多关于这里的秘密！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多谢了，我会在梦境外等你！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收下吧，这是老夫唯一的宝物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他可以让你在梦境中走的更远，切记，不要在梦境中迷失自己。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你找到了碎片！果然是你！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是众神的指引，这是众星的庇护！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快，再去找更多的碎片，还需要更多的，快！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -169,12 +185,6 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -182,7 +192,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -191,7 +201,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -200,7 +210,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,7 +219,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -218,7 +228,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -226,7 +236,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -234,7 +244,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -242,7 +252,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -250,7 +260,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -259,7 +269,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -268,7 +278,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -276,7 +286,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -285,7 +295,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -293,7 +303,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -302,7 +312,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -311,7 +321,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -319,7 +329,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -626,136 +636,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -1142,20 +1149,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="85.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="85.25" customWidth="1"/>
     <col min="10" max="10" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1190,230 +1197,486 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1">
-      <c r="A4" s="3">
+      <c r="K16">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3">
-        <v>3</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="3">
-        <v>4</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="3" customFormat="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="3">
-        <v>5</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="3" customFormat="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="3">
-        <v>6</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="3" customFormat="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="3">
-        <v>7</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="L16">
         <v>1</v>
       </c>
     </row>
@@ -1430,7 +1693,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1443,7 +1706,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoryText.xlsx
+++ b/Excel/StoryText.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\UE4\RougeLike\trunk\Resource\UE4RougeLike\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\UE4\UE4RougeLikeGithub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1073920-00FB-41EB-862E-404FDC3941FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62C0D62-5B51-4390-904F-8CB23AAC7946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Speaker</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,75 +89,67 @@
     <t>NpcId</t>
   </si>
   <si>
-    <t>遗忘之人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>言灵师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你来了，充满污秽之人……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这里不欢迎你！或许……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是你，也好……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是谁？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我只是个被抛弃的人罢了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前方有&lt;red&gt;众神的圣像&lt;/&gt;，你去向众神祈祷，也许可以洗去你的污秽……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>众神保佑，终于有人来这里了！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年轻人，快带我离开这里！我知晓许多关于这里的秘密！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多谢了，我会在梦境外等你！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收下吧，这是老夫唯一的宝物。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是什么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>他可以让你在梦境中走的更远，切记，不要在梦境中迷失自己。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你找到了碎片！果然是你！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是众神的指引，这是众星的庇护！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快，再去找更多的碎片，还需要更多的，快！</t>
+    <t>NextSection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珊珊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年，你吃了么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你怎么长得跟猪一样？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗屁！老子这么帅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你才长得跟猪一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Story/Image/monster2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狗子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是干什么吃的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Game/Blueprints/Story/Image/Helper1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是你爷爷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你他妈的的敢骂我，你小心老娘让你起不了床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来呀 你以为老子怕你</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我其实是你爸爸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你真的是我爸爸？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1149,20 +1140,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="85.25" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
     <col min="10" max="10" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1199,51 +1190,57 @@
       <c r="L1" t="s">
         <v>13</v>
       </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1255,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -1263,8 +1260,11 @@
       <c r="L3">
         <v>1</v>
       </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1284,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -1295,57 +1295,63 @@
       <c r="L4">
         <v>1</v>
       </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
         <v>2</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
+      <c r="B6" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1354,15 +1360,18 @@
         <v>12</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -1370,320 +1379,202 @@
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
+      <c r="K7" s="2">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
         <v>1</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
+        <v>24</v>
+      </c>
+      <c r="K8" s="2">
+        <v>8</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11">
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="K11" s="2">
+        <v>11</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Excel/StoryText.xlsx
+++ b/Excel/StoryText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mywork\UE4\UE4RougeLikeGithub\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mywork\UE4\UE4RougeLike\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62C0D62-5B51-4390-904F-8CB23AAC7946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6AB605-88FD-4E1C-9F4B-3B880BB224F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9270" yWindow="1365" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="615" yWindow="1125" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,18 +157,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -183,7 +183,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -192,7 +192,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -201,7 +201,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -210,7 +210,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,7 +219,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,7 +227,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -235,7 +235,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -243,7 +243,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -251,7 +251,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -260,7 +260,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,7 +269,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,7 +277,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -286,7 +286,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -294,7 +294,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -303,7 +303,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,7 +312,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -320,7 +320,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1140,20 +1140,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="10" max="10" width="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1194,7 +1194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" ht="25.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>24</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>24</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>21</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1299,9 +1299,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="2" customFormat="1">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -1325,7 +1325,7 @@
         <v>21</v>
       </c>
       <c r="K5" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L5" s="2">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>12</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L6">
         <v>2</v>
@@ -1369,9 +1369,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="2" customFormat="1">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -1395,7 +1395,7 @@
         <v>21</v>
       </c>
       <c r="K7" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L7" s="2">
         <v>2</v>
@@ -1404,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="51" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="51">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1441,9 +1441,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="2" customFormat="1">
       <c r="A9" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -1476,9 +1476,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="2" customFormat="1">
       <c r="A10" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>22</v>
@@ -1511,9 +1511,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="2" customFormat="1">
       <c r="A11" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>14</v>
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>21</v>
@@ -1544,31 +1544,6 @@
       </c>
       <c r="M11" s="2">
         <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="2">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1559,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1597,7 +1572,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StoryText.xlsx
+++ b/Excel/StoryText.xlsx
@@ -1,39 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mywork\UE4\UE4RougeLike\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Game\ForTomorrow\UE4RougeLike\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6AB605-88FD-4E1C-9F4B-3B880BB224F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF25148-0C02-4A7E-A249-321E023974F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="615" yWindow="1125" windowWidth="21600" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="136">
   <si>
     <t>Speaker</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,74 +69,496 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>NpcId</t>
+  </si>
+  <si>
+    <t>主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextSection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗忘之人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你来了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是圣殿，不欢迎&lt;red&gt;沾染污浊&lt;/&gt;之人……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过如果是你，也好……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我是个被遗忘的人，我自己都忘了我是谁……这不重要，你要去&lt;red&gt;圣像&lt;/&gt;下祈祷，希望可以洗去你的污浊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;red&gt;圣像？&lt;/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是众神的圣像，祂就在前方，去吧……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你能带来&lt;red&gt;灵魂结晶&lt;/&gt;，我也可以为你净化污染……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言灵师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里，年轻人！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>/Game/Blueprints/Story/Image/123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NpcId</t>
-  </si>
-  <si>
-    <t>主角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NextSection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珊珊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少年，你吃了么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你怎么长得跟猪一样？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗屁！老子这么帅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你才长得跟猪一样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Blueprints/Story/Image/monster2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狗子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你是干什么吃的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Game/Blueprints/Story/Image/Helper1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我是你爷爷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你他妈的的敢骂我，你小心老娘让你起不了床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来呀 你以为老子怕你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我其实是你爸爸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你真的是我爸爸？</t>
+  </si>
+  <si>
+    <t>终于有人来这里了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带我离开这里吧，我知道很多关于这里的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你，这是我送你的礼物……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那里是什么地方？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你说那里？那里是&lt;red&gt;梦境之地&lt;/&gt;，有很多外神在那里游荡，如果你还要去，一定要保持自己的理智。</t>
+  </si>
+  <si>
+    <t>祝你好运。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊，你居然发现了这个！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快！那里一定还有，快，还需要更多！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聊天选项，1.你是谁？2.……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得灵魂结晶后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言灵师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是的！就是它，这里充满了祂的力量！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦，护身符？给我的吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢你，不过我觉得，在这座教堂中，没人会伤害我，哈哈哈哈……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不论怎么说，还是谢谢你！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚妄！迷幻！你认为这些财富可以使你自由吗？！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你做不到的，没人可以做到的，除了祂！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油吧，年轻人，这终将是属于你的时代！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿众星指引你的道路……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我错怪你了，包围你的不是污秽，这是月之神的考验！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你会成为祂的，一定会的……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是暗月的礼物，是天神的旨意！我看到了！我从他们中感受到了力量！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未获得暗月碎片前，重复此段对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话结束，未获得下一阶段进展时，重复5，若获得另一个暗月碎片，进行6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话结束，未获得下一阶段进展时，重复5，若获得另一个暗月碎片，进行7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你知道吗？自从暗月被那个无耻的叛徒击碎后，多少代人，再没有见过这么纯正的月光了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦你看啊，多么完美的月光……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去吧，暗月的力量可以让你走的更远……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（*沉醉在暗月碎片的幻想中……）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你没有见过那个最黑暗的时代，你不会懂的……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我能感觉到，祂就要苏醒了，就差一点点了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话结束，未获得下一阶段进展时，重复5，若获得另一个暗月碎片，进行8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦足够了，我感觉到了，祂已经苏醒了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们需要启动仪式迎接祂的降临！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我准备好了，我早已经准备好了！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你准备好了，就来告诉我，我们一起迎接暗月的降临！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗月之神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遗忘之人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵命，我的主，我这就献上我与奴仆的血肉，迎接您的到来！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降临吧！暗月之神！您的子民在为您祈祷！您的天穹在与您低语！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落魄的奴仆们，献出你的血肉吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此时交互，出现选项，1.洗去污秽（原有npc功能） 2.开始仪式（进入Boss战场景，section到达9） 3.破坏仪式（集齐5个繁星碎片后，此阶段出现此选项，选择后进入Boss战场景，Boss变为遗忘之人，section达到10）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>什么！你！你为何要背叛神明！你与那个叛徒一样！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗月之神不会饶恕你的！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月神……您的奴仆……还不够资格侍奉您的左右……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您无能的奴仆……将奉献出自己的身躯……迎接暗月的到来……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据各NPC section，播放各NPC对话，进入遗忘之人Boss战，失败进入暗月降临结局，胜利进入section 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据各NPC section，播放各NPC对话，进入遗忘之人Boss战，失败进入暗月降临结局，胜利进入诸神遗落结局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终究还是败了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入暗月之神Boss战，失败进入暗月降临结局，胜利进入section 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互出现选项 1.将其点燃（进入新时代结局） 2.使用众星碎片（当拥有众星碎片时，出现该选项，进入众星结局）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执火者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是谁？为什么会到这里来？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算了，这不重要，我从你的身上感受到了无尽的潜力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话结束后，执火者在主城生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些是被困在梦境中的灵魂，你可以吸收他们化为自身的力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离开这里后，我可以教你汲取梦境的力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这么久了，真没想到，我还可以回到这里……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主城首次与执火者对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦，护符？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是众星的护符，与我信奉的新月之神并不相同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过谢谢你的好意，我会带着它的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新月，背叛了我！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迷途之人！你根本不知道祂的强大！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有护符时，与执火者对话，出现选项，1.汲取力量 2.赠送护符（section 4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿新月守护着你……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与执火者重复对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若最终boss战时，section进度未到9，在boss出场时自动播放，成为敌对怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若最终boss战时，section进度到达9，在boss出场时自动播放，成为友方单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的神祇并非正统，你误入了歧途。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该醒来了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立誓者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里，主的仆从……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在你身上我感受到了主的力量……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不属于这个世界的力量……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在关卡中首次遇到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话结束后，在主城生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在主城首次对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有护符时，出现选项，1.查看藏品 2.赠送护符（section 4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我曾向天穹立誓，为每一代迷途者引路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在，我可以将力量想你敞开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去茫茫灵河中获取你的侍灵吧……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>愿侍灵常伴随你左右……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持有护符时，出现选项，1.侍灵共鸣 2.赠送护符（section 4）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦，是众星的护符。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你获得了众星的力量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我说不上这是好事还是坏事，但我会保管好他的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗月之主，感谢您将我唤醒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原来这里，才是天穹的真谛！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>众星开始闪耀……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗月终将会熄灭……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守约人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里，我的主人……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自从与老主人分别，已经太久了……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签下这份约定，我将继续为您服务……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的主人，感谢您收留我。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但我仍可以为你保管所需之物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在这里我只是一介凡人，做不了太多事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是护符吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没想到我这等低贱的人也可以拥有。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感谢我的主人，我必将保护好它……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的主人，这股力量太强大了，我抵抗不了他……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原谅您的奴仆吧……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若最终boss战时，section进度未到9，在boss出场时自动播放，随后该NPC死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的主人，您的奴仆会为您战斗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世世代代都是如此……</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -157,33 +566,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -192,7 +594,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Cambria"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -201,7 +603,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -210,7 +612,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -219,7 +621,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,7 +629,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -235,7 +637,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -243,7 +645,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -251,7 +653,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -260,7 +662,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -269,7 +671,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -277,7 +679,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -286,7 +688,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -294,7 +696,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -303,7 +705,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -312,7 +714,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -320,7 +722,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -627,127 +1029,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,11 +1157,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -781,30 +1183,30 @@
     <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1140,20 +1542,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="7.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="42" style="2" customWidth="1"/>
     <col min="10" max="10" width="43" customWidth="1"/>
+    <col min="14" max="14" width="40.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1567,7 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
@@ -1188,362 +1592,3112 @@
         <v>10</v>
       </c>
       <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="25.5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>5</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>9</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28">
+        <v>6</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" s="1">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>3</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" s="1">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>3</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38" s="1">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>5</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="H41">
+        <v>9</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>9</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>5</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1">
+        <v>2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>5</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1">
+        <v>3</v>
+      </c>
+      <c r="L45" s="1">
+        <v>5</v>
+      </c>
+      <c r="M45" s="1">
+        <v>2</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1">
+        <v>2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>5</v>
+      </c>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1">
+        <v>2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1">
+        <v>2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>5</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1">
+        <v>2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1">
+        <v>3</v>
+      </c>
+      <c r="L48" s="1">
+        <v>5</v>
+      </c>
+      <c r="M48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1">
+        <v>3</v>
+      </c>
+      <c r="I49" s="1">
+        <v>1</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="L49" s="1">
+        <v>5</v>
+      </c>
+      <c r="M49" s="1">
+        <v>3</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1">
+        <v>4</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="L50" s="1">
+        <v>5</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1">
+        <v>4</v>
+      </c>
+      <c r="I51" s="1">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1">
+        <v>2</v>
+      </c>
+      <c r="L51" s="1">
+        <v>5</v>
+      </c>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1">
+        <v>4</v>
+      </c>
+      <c r="I52" s="1">
+        <v>1</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1">
+        <v>3</v>
+      </c>
+      <c r="L52" s="1">
+        <v>5</v>
+      </c>
+      <c r="M52" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="1">
+        <v>6</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1">
+        <v>5</v>
+      </c>
+      <c r="I53" s="1">
+        <v>1</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="L53" s="1">
+        <v>5</v>
+      </c>
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E54" s="1">
+        <v>6</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1">
+        <v>5</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1">
+        <v>2</v>
+      </c>
+      <c r="L54" s="1">
+        <v>5</v>
+      </c>
+      <c r="M54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="1">
+        <v>6</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1">
+        <v>9</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>5</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="1">
+        <v>6</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1">
+        <v>9</v>
+      </c>
+      <c r="I56" s="1">
+        <v>1</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1">
+        <v>2</v>
+      </c>
+      <c r="L56" s="1">
+        <v>5</v>
+      </c>
+      <c r="M56" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1">
+        <v>2</v>
+      </c>
+      <c r="L58" s="1">
+        <v>4</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E59" s="1">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1">
+        <v>1</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1">
+        <v>3</v>
+      </c>
+      <c r="L59" s="1">
+        <v>4</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2" t="s">
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1">
+        <v>2</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="L60" s="1">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E61" s="1">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1">
+        <v>2</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1">
+        <v>2</v>
+      </c>
+      <c r="L61" s="1">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1">
+        <v>3</v>
+      </c>
+      <c r="L62" s="1">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="1">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1">
+        <v>3</v>
+      </c>
+      <c r="I63" s="1">
+        <v>1</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="1">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1">
+        <v>4</v>
+      </c>
+      <c r="I64" s="1">
+        <v>1</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1">
+        <v>4</v>
+      </c>
+      <c r="I65" s="1">
+        <v>2</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1">
+        <v>2</v>
+      </c>
+      <c r="L65" s="1">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1">
+        <v>4</v>
+      </c>
+      <c r="I66" s="1">
+        <v>1</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1">
+        <v>3</v>
+      </c>
+      <c r="L66" s="1">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E67" s="1">
+        <v>1</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1">
+        <v>4</v>
+      </c>
+      <c r="I67" s="1">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1">
+        <v>4</v>
+      </c>
+      <c r="L67" s="1">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1">
+        <v>4</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1">
+        <v>5</v>
+      </c>
+      <c r="L68" s="1">
+        <v>4</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>4</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>6</v>
+      </c>
+      <c r="L69" s="1">
+        <v>4</v>
+      </c>
+      <c r="M69" s="1">
+        <v>5</v>
+      </c>
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1">
+        <v>5</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1">
+        <v>4</v>
+      </c>
+      <c r="M70" s="1">
+        <v>5</v>
+      </c>
+      <c r="N70" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73">
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <v>5</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="H74">
         <v>7</v>
       </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2">
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>7</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>7</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>7</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>4</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="N77" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>8</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>8</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>9</v>
+      </c>
+      <c r="N81" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="H82">
+        <v>9</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83">
+        <v>6</v>
+      </c>
+      <c r="H83">
+        <v>9</v>
+      </c>
+      <c r="I83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>4</v>
+      </c>
+      <c r="M83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84">
+        <v>6</v>
+      </c>
+      <c r="H84">
+        <v>9</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84">
+        <v>4</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85">
+        <v>6</v>
+      </c>
+      <c r="H85">
+        <v>9</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+      <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85">
+        <v>9</v>
+      </c>
+      <c r="N85" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+      <c r="L86">
+        <v>4</v>
+      </c>
+      <c r="M86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E88">
+        <v>6</v>
+      </c>
+      <c r="H88">
+        <v>10</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <v>4</v>
+      </c>
+      <c r="M88">
+        <v>11</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E89">
+        <v>6</v>
+      </c>
+      <c r="H89">
+        <v>11</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>4</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E90">
+        <v>6</v>
+      </c>
+      <c r="H90">
+        <v>11</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>11</v>
+      </c>
+      <c r="N90" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E91">
+        <v>6</v>
+      </c>
+      <c r="H91">
         <v>12</v>
       </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="2">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="51">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="2">
-        <v>8</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
         <v>12</v>
       </c>
-      <c r="K10" s="2">
-        <v>10</v>
-      </c>
-      <c r="L10" s="2">
-        <v>2</v>
-      </c>
-      <c r="M10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="2">
-        <v>11</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2</v>
-      </c>
-      <c r="M11" s="2">
-        <v>3</v>
+      <c r="N91" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1551,30 +4705,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>